--- a/biology/Zoologie/Eolepidopterigidae/Eolepidopterigidae.xlsx
+++ b/biology/Zoologie/Eolepidopterigidae/Eolepidopterigidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Undopterigidae, Eolepidopterix, Eolepidopterix jurassica, Eolepidopterigoidea
 Les Eolepidopterigidae sont une famille fossile d'insectes lépidoptères de la super-famille des Eolepidopterigoidea. L'espèce Eolepidopterix jurassica est l'espèce type et la seule du genre fossile Eolepidopterix. Ce genre Eolepidopterix est le genre type de la famille des Eolepidopterigidae.
@@ -512,20 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Eolepidopterigidae et la super-famille des Eolepidopterigoidea sont décrites en 1983 par le paléontologue et entomologiste russe Alexandre Rasnitsyne (1936-)[1],[2].
-Le genre Eolepidopterix et l'espèce Eolepidopterix jurassica sont créés simultanément en 1983 par Alexandre Rasnitsyne[1],[2].
-Synonyme
-Cette famille des Eolepidopterigidae a un synonyme †Undopterigidae Kozlov (d) 1988[3], mais Undopterigidae est déclarée synonyme de Eolepidopterigidae par Sohn et al. en 2012[2].
-Genre type
-Selon Paleobiology Database en 2023, le genre type est Eolepidopterix.
-Selon Paleobiology Database en 2023, l'espèce type du genre Eolepidopterix est Eolepidopterix jurassica[2].
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de quatorze[2] :
-Crétacé : trois collections du Brésil et deux collections de Russie ;
-Jurassique : trois collections de Chine, deux d'Allemagne, une du Kazakhstan, quatre de Russie[2].
-ceci atteste la présence de cette famille du Toarcien inférieur du Jurassique supérieur à l'Aptien du Crétacé inférieur, ou soit encore de 183 à 113 Ma avant notre ère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Eolepidopterigidae et la super-famille des Eolepidopterigoidea sont décrites en 1983 par le paléontologue et entomologiste russe Alexandre Rasnitsyne (1936-),.
+Le genre Eolepidopterix et l'espèce Eolepidopterix jurassica sont créés simultanément en 1983 par Alexandre Rasnitsyne,.
 </t>
         </is>
       </c>
@@ -551,27 +555,147 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille des Eolepidopterigidae a un synonyme †Undopterigidae Kozlov (d) 1988, mais Undopterigidae est déclarée synonyme de Eolepidopterigidae par Sohn et al. en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le genre type est Eolepidopterix.
+Selon Paleobiology Database en 2023, l'espèce type du genre Eolepidopterix est Eolepidopterix jurassica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de quatorze :
+Crétacé : trois collections du Brésil et deux collections de Russie ;
+Jurassique : trois collections de Chine, deux d'Allemagne, une du Kazakhstan, quatre de Russie.
+ceci atteste la présence de cette famille du Toarcien inférieur du Jurassique supérieur à l'Aptien du Crétacé inférieur, ou soit encore de 183 à 113 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des genres de la famille des Eolepidopterigidae
-†Aclemus Zhang et al., 2016 Daohugou, Chine, Callovien
-†Akainalepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4]  Daohugou, Chine, Callovien
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres de la famille des Eolepidopterigidae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>†Aclemus Zhang et al., 2016 Daohugou, Chine, Callovien
+†Akainalepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013  Daohugou, Chine, Callovien
 †Netoxena Sohn in Sohn et al., 2012 Crato Formation, Brésil, Aptien
 †Daiopterix Skalski, 1984 Glushkovo Formation, Russie, Tithonien
-†Dynamilepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, Chine, Callovien
+†Dynamilepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, Chine, Callovien
 †Psamateia Martins-Neto, 2002 Crato Formation, Brésil, Aptien
 †Palaeolepidopterix Kozlov, 1989 Karabastau Formation, Kazakhtstan, Callovien/Oxfordien
 †Gracilepteryx Martins-Neto and Vulcano, 1989 Crato Formation, Brésil, Aptien
 †Eolepidopterix Rasnitsyn, 1983 Uda Formation, Russie, Oxfordien
 †Undopterix Skalski, 1979  Glushkovo Formation, Russie, Tithonien Crato Formation, Brésil, Aptien
-†Grammikolepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, Chine, Calloviean
-†Longcapitalis Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, China, Callovian
-†Petilicorpus Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, China, Callovian
-†Quadruplecivena Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, Chine, Callovien
-†Seresilepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013[4] Daohugou, Chine, Callovien</t>
+†Grammikolepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, Chine, Calloviean
+†Longcapitalis Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, China, Callovian
+†Petilicorpus Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, China, Callovian
+†Quadruplecivena Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, Chine, Callovien
+†Seresilepidopteron Zhang, Shih, Labandeira &amp; Ren in Zhang et al., 2013 Daohugou, Chine, Callovien</t>
         </is>
       </c>
     </row>
